--- a/Documents/Project 3_ Requirements.xlsx
+++ b/Documents/Project 3_ Requirements.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="103">
   <si>
     <t>KU Dating App (JayMatch) – Project 3 Plan</t>
   </si>
@@ -326,6 +326,15 @@
   </si>
   <si>
     <t>Add test evidence: Postman collection, screenshots, and short demo for mutual-like flow and chat messaging.</t>
+  </si>
+  <si>
+    <t>Correclty implement chat feature to only chat with people you've matched with.</t>
+  </si>
+  <si>
+    <t>Properly fix the matching algorithm to integrate with both front end and back end.</t>
+  </si>
+  <si>
+    <t>Resolve all remaining functional bugs discovered during final QA testing, ensuring core features (login, profile, chat, matching) work consistently end-to-end.</t>
   </si>
 </sst>
 </file>
@@ -1603,11 +1612,56 @@
         <v>3.0</v>
       </c>
     </row>
+    <row r="82">
+      <c r="A82" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C82" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="D82" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E82" s="2">
+        <v>4.0</v>
+      </c>
+    </row>
     <row r="83">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="6"/>
+      <c r="A83" s="3">
+        <v>29.0</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C83" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="D83" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E83" s="2">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C84" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="D84" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E84" s="2">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="94">
       <c r="C94" s="3"/>

--- a/Documents/Project 3_ Requirements.xlsx
+++ b/Documents/Project 3_ Requirements.xlsx
@@ -328,7 +328,7 @@
     <t>Add test evidence: Postman collection, screenshots, and short demo for mutual-like flow and chat messaging.</t>
   </si>
   <si>
-    <t>Correclty implement chat feature to only chat with people you've matched with.</t>
+    <t>Correctly implement chat feature to only chat with people you've matched with.</t>
   </si>
   <si>
     <t>Properly fix the matching algorithm to integrate with both front end and back end.</t>
